--- a/Elevator.xlsx
+++ b/Elevator.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo Xu\Downloads\SYSC3303\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EB1507-E41D-42DD-8C14-731F2F5806C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{40FBBC55-3733-4A8D-A6FD-BA0FDE605178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D4740678-A559-4F5C-8C7D-67D280664085}"/>
   </bookViews>
@@ -16,6 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -416,7 +412,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
